--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91C158-3185-4375-BCC9-C09A205C3062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCAA5B-1578-4774-BC78-A5D0C03334B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>D Tem</t>
-  </si>
-  <si>
-    <t>C Team</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>teamName</t>
   </si>
@@ -50,35 +44,98 @@
     <t>points</t>
   </si>
   <si>
-    <t>A Team</t>
-  </si>
-  <si>
-    <t>B Team</t>
-  </si>
-  <si>
-    <t>E Team</t>
-  </si>
-  <si>
-    <t>F Team</t>
-  </si>
-  <si>
-    <t>G Team</t>
-  </si>
-  <si>
-    <t>H team</t>
+    <t>Devansh Khodaskar</t>
+  </si>
+  <si>
+    <t>Akshat Modi</t>
+  </si>
+  <si>
+    <t>Shraddha Bhisikar</t>
+  </si>
+  <si>
+    <t>Achintya Goyal</t>
+  </si>
+  <si>
+    <t>Sanvi Tripathi</t>
+  </si>
+  <si>
+    <t>Jay Gupta</t>
+  </si>
+  <si>
+    <t>Harshit Sahu</t>
+  </si>
+  <si>
+    <t>Arpita Singh</t>
+  </si>
+  <si>
+    <t>Shreyash choudhary</t>
+  </si>
+  <si>
+    <t>akshay mundle</t>
+  </si>
+  <si>
+    <t>Om Singh Bais</t>
+  </si>
+  <si>
+    <t>Om Chillure</t>
+  </si>
+  <si>
+    <t>Prathmesh Agrawal</t>
+  </si>
+  <si>
+    <t>Tejas Singh</t>
+  </si>
+  <si>
+    <t>Ram Gandhewar</t>
+  </si>
+  <si>
+    <t>Jyotiraditya tripathi</t>
+  </si>
+  <si>
+    <t>Mohammad Adnan Dalal</t>
+  </si>
+  <si>
+    <t>Aditya Kayasth</t>
+  </si>
+  <si>
+    <t>Krishna Vijaywargia</t>
+  </si>
+  <si>
+    <t>Priyanshu Chakole</t>
+  </si>
+  <si>
+    <t>Kunal Ekare</t>
+  </si>
+  <si>
+    <t>Shreyash Santosh Shahu</t>
+  </si>
+  <si>
+    <t>Varnan Rathod</t>
+  </si>
+  <si>
+    <t>Prakhar</t>
+  </si>
+  <si>
+    <t>Atharva Rakshak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,8 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,90 +478,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04473FF-BE4A-48AC-986B-6EC2C1DF0E4F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>4345</v>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCAA5B-1578-4774-BC78-A5D0C03334B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36112193-22A9-4C70-8CD8-23B6A83948E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>teamName</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Atharva Rakshak</t>
+  </si>
+  <si>
+    <t>Akshata Katole</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04473FF-BE4A-48AC-986B-6EC2C1DF0E4F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +708,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36112193-22A9-4C70-8CD8-23B6A83948E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC2299-3CBE-43F6-B0CB-80FC424C83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>teamName</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04473FF-BE4A-48AC-986B-6EC2C1DF0E4F}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,12 +505,12 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -518,15 +518,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -534,23 +534,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -566,39 +566,39 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -606,15 +606,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -622,23 +622,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -646,23 +646,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -670,15 +670,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -686,34 +686,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>3333</v>
       </c>
     </row>
   </sheetData>

--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC2299-3CBE-43F6-B0CB-80FC424C83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F1982-76FA-4FC9-A2DB-1C1B2C6F9569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>teamName</t>
   </si>
@@ -74,9 +74,6 @@
     <t>akshay mundle</t>
   </si>
   <si>
-    <t>Om Singh Bais</t>
-  </si>
-  <si>
     <t>Om Chillure</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Ram Gandhewar</t>
   </si>
   <si>
-    <t>Jyotiraditya tripathi</t>
-  </si>
-  <si>
     <t>Mohammad Adnan Dalal</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>Varnan Rathod</t>
-  </si>
-  <si>
-    <t>Prakhar</t>
   </si>
   <si>
     <t>Atharva Rakshak</t>
@@ -481,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04473FF-BE4A-48AC-986B-6EC2C1DF0E4F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,114 +501,114 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2694</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>3915</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3281</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1556</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2876</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>3031</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>4133</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>3367</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,23 +616,23 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>3149</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>1435</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,31 +640,31 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>4483</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>4088</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5046</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,30 +672,6 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
         <v>3333</v>
       </c>
     </row>

--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F1982-76FA-4FC9-A2DB-1C1B2C6F9569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA044CD3-06A4-44C9-8812-7A4E9B51208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,18 +473,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04473FF-BE4A-48AC-986B-6EC2C1DF0E4F}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,189 +495,212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2595</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3120</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4801</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4450</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3700</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4114</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2470</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2086</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3487</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3523</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>4133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4677</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4813</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3885</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3680</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2028</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3267</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>4483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4981</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>4088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4502</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20">
-        <v>4583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4934</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5538</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5224</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3643</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3333</v>
-      </c>
+        <v>3870</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA044CD3-06A4-44C9-8812-7A4E9B51208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB643BD-DEBE-4E77-85C3-F779FCCA2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>teamName</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Akshata Katole</t>
+  </si>
+  <si>
+    <t>Shayan Qureshi</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04473FF-BE4A-48AC-986B-6EC2C1DF0E4F}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +705,16 @@
       </c>
       <c r="E24" s="3"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f>2253+534</f>
+        <v>2787</v>
+      </c>
+      <c r="D25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB643BD-DEBE-4E77-85C3-F779FCCA2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6F61F-8FAE-4208-B260-C7CE6D36FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,8 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4801</v>
+        <f>4801+300</f>
+        <v>5101</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -602,6 +603,7 @@
         <v>10</v>
       </c>
       <c r="B13">
+        <f>4813</f>
         <v>4813</v>
       </c>
       <c r="E13" s="3"/>
@@ -638,7 +640,8 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>3267</v>
+        <f>3267+3000</f>
+        <v>6267</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -665,6 +668,7 @@
         <v>15</v>
       </c>
       <c r="B20">
+        <f>4934</f>
         <v>4934</v>
       </c>
       <c r="E20" s="3"/>
@@ -674,7 +678,8 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5538</v>
+        <f>5538+300</f>
+        <v>5838</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -683,7 +688,8 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5224</v>
+        <f>5224+3000</f>
+        <v>8224</v>
       </c>
       <c r="E22" s="3"/>
     </row>

--- a/src/leaderboard.xlsx
+++ b/src/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a-polaris\leader\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6F61F-8FAE-4208-B260-C7CE6D36FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A3634D-1EA2-4B32-A2EA-1240D2DE6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B23C945-1180-4F52-B938-814F22B23B0E}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,8 +678,8 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <f>5538+300</f>
-        <v>5838</v>
+        <f>5538+1200</f>
+        <v>6738</v>
       </c>
       <c r="E21" s="3"/>
     </row>
